--- a/Pubmed/Lassa/Reference_Summary_Feb20.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Feb20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/LASV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Desktop/HIV/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB007B29-2059-524E-937E-2B278BC4C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7934CF67-1EAD-1349-BEEF-76A79D2E677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="2000" windowWidth="25780" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8780" yWindow="760" windowWidth="25780" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="446">
   <si>
     <t>Title</t>
   </si>
@@ -1902,9 +1902,6 @@
   </si>
   <si>
     <t>2014-2016</t>
-  </si>
-  <si>
-    <t>Benin Republic</t>
   </si>
   <si>
     <t>MF317933-35</t>
@@ -3402,14 +3399,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="68.33203125" customWidth="1"/>
     <col min="2" max="2" width="119.5" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -4140,7 +4138,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -4220,7 +4218,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11">
         <v>2001</v>
@@ -4297,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -4374,7 +4372,7 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C13">
         <v>2005</v>
@@ -4451,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C14">
         <v>2006</v>
@@ -4528,7 +4526,7 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C15">
         <v>2007</v>
@@ -4608,7 +4606,7 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16">
         <v>2010</v>
@@ -4685,7 +4683,7 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C17">
         <v>2010</v>
@@ -4916,7 +4914,7 @@
         <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C20">
         <v>2011</v>
@@ -4999,7 +4997,7 @@
         <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21">
         <v>2011</v>
@@ -5212,7 +5210,7 @@
         <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24">
         <v>2012</v>
@@ -5369,7 +5367,7 @@
         <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C26">
         <v>2012</v>
@@ -5665,10 +5663,10 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" t="s">
         <v>419</v>
-      </c>
-      <c r="B30" t="s">
-        <v>420</v>
       </c>
       <c r="C30">
         <v>2015</v>
@@ -5745,7 +5743,7 @@
         <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C31">
         <v>2015</v>
@@ -5828,7 +5826,7 @@
         <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -5911,7 +5909,7 @@
         <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C33">
         <v>2016</v>
@@ -5988,7 +5986,7 @@
         <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34">
         <v>2016</v>
@@ -6219,7 +6217,7 @@
         <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C37">
         <v>2018</v>
@@ -6296,7 +6294,7 @@
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C38">
         <v>2018</v>
@@ -6545,7 +6543,7 @@
         <v>259</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C41">
         <v>2019</v>
@@ -6628,7 +6626,7 @@
         <v>264</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C42">
         <v>2019</v>
@@ -6708,10 +6706,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43" t="s">
         <v>429</v>
-      </c>
-      <c r="B43" t="s">
-        <v>430</v>
       </c>
       <c r="C43">
         <v>2019</v>
@@ -6782,7 +6780,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C44">
         <v>2019</v>
@@ -6859,7 +6857,7 @@
         <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C45">
         <v>2019</v>
@@ -7016,7 +7014,7 @@
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C47">
         <v>2019</v>
@@ -7040,10 +7038,10 @@
         <v>290</v>
       </c>
       <c r="J47" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" t="s">
         <v>291</v>
-      </c>
-      <c r="K47" t="s">
-        <v>292</v>
       </c>
       <c r="L47" t="s">
         <v>36</v>
@@ -7055,7 +7053,7 @@
         <v>153</v>
       </c>
       <c r="P47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q47" t="s">
         <v>41</v>
@@ -7090,16 +7088,16 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" t="s">
         <v>434</v>
-      </c>
-      <c r="B48" t="s">
-        <v>435</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E48">
         <v>31554720</v>
@@ -7111,7 +7109,7 @@
         <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I48">
         <v>2012</v>
@@ -7120,10 +7118,10 @@
         <v>48</v>
       </c>
       <c r="K48" t="s">
+        <v>295</v>
+      </c>
+      <c r="N48" t="s">
         <v>296</v>
-      </c>
-      <c r="N48" t="s">
-        <v>297</v>
       </c>
       <c r="R48" t="s">
         <v>272</v>
@@ -7155,16 +7153,16 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E49">
         <v>31588039</v>
@@ -7179,13 +7177,13 @@
         <v>33</v>
       </c>
       <c r="I49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" t="s">
         <v>300</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>301</v>
-      </c>
-      <c r="K49" t="s">
-        <v>302</v>
       </c>
       <c r="L49" t="s">
         <v>190</v>
@@ -7233,21 +7231,21 @@
         <v>37</v>
       </c>
       <c r="AC49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" t="s">
         <v>304</v>
-      </c>
-      <c r="B50" t="s">
-        <v>305</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E50">
         <v>32046182</v>
@@ -7262,19 +7260,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" t="s">
         <v>307</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>308</v>
-      </c>
-      <c r="K50" t="s">
-        <v>309</v>
       </c>
       <c r="L50" t="s">
         <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O50" t="s">
         <v>278</v>
@@ -7316,21 +7314,21 @@
         <v>246</v>
       </c>
       <c r="AC50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C51">
         <v>2020</v>
       </c>
       <c r="D51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E51">
         <v>32459576</v>
@@ -7345,13 +7343,13 @@
         <v>219</v>
       </c>
       <c r="I51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J51" t="s">
         <v>107</v>
       </c>
       <c r="K51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s">
         <v>36</v>
@@ -7399,21 +7397,21 @@
         <v>246</v>
       </c>
       <c r="AC51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C52">
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E52">
         <v>32723007</v>
@@ -7434,7 +7432,7 @@
         <v>275</v>
       </c>
       <c r="K52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s">
         <v>222</v>
@@ -7443,7 +7441,7 @@
         <v>44</v>
       </c>
       <c r="N52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O52" t="s">
         <v>143</v>
@@ -7485,15 +7483,15 @@
         <v>246</v>
       </c>
       <c r="AC52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -7520,7 +7518,7 @@
         <v>107</v>
       </c>
       <c r="K53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s">
         <v>190</v>
@@ -7570,16 +7568,16 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" t="s">
         <v>323</v>
-      </c>
-      <c r="B54" t="s">
-        <v>324</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E54">
         <v>33466234</v>
@@ -7600,13 +7598,13 @@
         <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
         <v>222</v>
       </c>
       <c r="N54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O54" t="s">
         <v>39</v>
@@ -7648,21 +7646,21 @@
         <v>37</v>
       </c>
       <c r="AC54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" t="s">
         <v>328</v>
-      </c>
-      <c r="B55" t="s">
-        <v>329</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E55">
         <v>33654106</v>
@@ -7674,10 +7672,10 @@
         <v>32</v>
       </c>
       <c r="H55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K55" t="s">
         <v>331</v>
-      </c>
-      <c r="K55" t="s">
-        <v>332</v>
       </c>
       <c r="L55" t="s">
         <v>36</v>
@@ -7686,7 +7684,7 @@
         <v>37</v>
       </c>
       <c r="N55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O55" t="s">
         <v>153</v>
@@ -7724,16 +7722,16 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" t="s">
         <v>334</v>
-      </c>
-      <c r="B56" t="s">
-        <v>335</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E56">
         <v>34127846</v>
@@ -7742,19 +7740,19 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
+        <v>336</v>
+      </c>
+      <c r="H56" t="s">
         <v>337</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>338</v>
       </c>
-      <c r="K56" t="s">
+      <c r="N56" t="s">
         <v>339</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>340</v>
-      </c>
-      <c r="O56" t="s">
-        <v>341</v>
       </c>
       <c r="R56" t="s">
         <v>64</v>
@@ -7789,16 +7787,16 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E57">
         <v>34522759</v>
@@ -7819,13 +7817,13 @@
         <v>107</v>
       </c>
       <c r="K57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s">
         <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P57" t="s">
         <v>40</v>
@@ -7864,21 +7862,21 @@
         <v>246</v>
       </c>
       <c r="AC57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" t="s">
         <v>347</v>
-      </c>
-      <c r="B58" t="s">
-        <v>348</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58">
         <v>34634087</v>
@@ -7899,7 +7897,7 @@
         <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s">
         <v>190</v>
@@ -7947,21 +7945,21 @@
         <v>246</v>
       </c>
       <c r="AC58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E59">
         <v>34857749</v>
@@ -7973,7 +7971,7 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R59" t="s">
         <v>64</v>
@@ -8008,10 +8006,10 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C60">
         <v>2022</v>
@@ -8029,19 +8027,19 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J60" t="s">
+        <v>355</v>
+      </c>
+      <c r="K60" t="s">
         <v>356</v>
-      </c>
-      <c r="K60" t="s">
-        <v>357</v>
       </c>
       <c r="L60" t="s">
         <v>190</v>
       </c>
       <c r="N60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O60" t="s">
         <v>71</v>
@@ -8080,21 +8078,21 @@
         <v>37</v>
       </c>
       <c r="AC60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C61">
         <v>2023</v>
       </c>
       <c r="D61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E61">
         <v>36968239</v>
@@ -8109,19 +8107,19 @@
         <v>81</v>
       </c>
       <c r="I61" t="s">
+        <v>360</v>
+      </c>
+      <c r="J61" t="s">
         <v>361</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>362</v>
-      </c>
-      <c r="K61" t="s">
-        <v>363</v>
       </c>
       <c r="L61" t="s">
         <v>190</v>
       </c>
       <c r="N61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O61" t="s">
         <v>143</v>
@@ -8163,15 +8161,15 @@
         <v>246</v>
       </c>
       <c r="AC61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" t="s">
         <v>366</v>
-      </c>
-      <c r="B62" t="s">
-        <v>367</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -8189,7 +8187,7 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I62">
         <v>2018</v>
@@ -8198,7 +8196,7 @@
         <v>34</v>
       </c>
       <c r="K62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L62" t="s">
         <v>190</v>
@@ -8242,16 +8240,16 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C63">
         <v>2023</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E63">
         <v>37288752</v>
@@ -8266,19 +8264,19 @@
         <v>219</v>
       </c>
       <c r="I63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J63" t="s">
         <v>34</v>
       </c>
       <c r="K63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L63" t="s">
         <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O63" t="s">
         <v>39</v>
@@ -8320,21 +8318,21 @@
         <v>246</v>
       </c>
       <c r="AC63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" t="s">
         <v>375</v>
-      </c>
-      <c r="B64" t="s">
-        <v>376</v>
       </c>
       <c r="C64">
         <v>2023</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64">
         <v>37542071</v>
@@ -8343,28 +8341,28 @@
         <v>593</v>
       </c>
       <c r="G64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H64" t="s">
         <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J64" t="s">
         <v>34</v>
       </c>
       <c r="K64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s">
         <v>190</v>
       </c>
       <c r="N64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S64" t="s">
         <v>42</v>
@@ -8394,21 +8392,21 @@
         <v>37</v>
       </c>
       <c r="AC64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" t="s">
         <v>381</v>
-      </c>
-      <c r="B65" t="s">
-        <v>382</v>
       </c>
       <c r="C65">
         <v>2024</v>
       </c>
       <c r="D65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E65">
         <v>38047354</v>
@@ -8423,25 +8421,25 @@
         <v>105</v>
       </c>
       <c r="I65" t="s">
+        <v>382</v>
+      </c>
+      <c r="J65" t="s">
         <v>383</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>384</v>
-      </c>
-      <c r="K65" t="s">
-        <v>385</v>
       </c>
       <c r="L65" t="s">
         <v>190</v>
       </c>
       <c r="N65" t="s">
+        <v>385</v>
+      </c>
+      <c r="O65" t="s">
         <v>386</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>387</v>
-      </c>
-      <c r="P65" t="s">
-        <v>388</v>
       </c>
       <c r="Q65" t="s">
         <v>103</v>
@@ -8477,21 +8475,21 @@
         <v>37</v>
       </c>
       <c r="AC65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" t="s">
         <v>390</v>
-      </c>
-      <c r="B66" t="s">
-        <v>391</v>
       </c>
       <c r="C66">
         <v>2024</v>
       </c>
       <c r="D66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E66">
         <v>38088796</v>
@@ -8503,25 +8501,25 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>391</v>
+      </c>
+      <c r="I66" t="s">
         <v>392</v>
-      </c>
-      <c r="I66" t="s">
-        <v>393</v>
       </c>
       <c r="J66" t="s">
         <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s">
         <v>190</v>
       </c>
       <c r="N66" t="s">
+        <v>394</v>
+      </c>
+      <c r="O66" t="s">
         <v>395</v>
-      </c>
-      <c r="O66" t="s">
-        <v>396</v>
       </c>
       <c r="P66" t="s">
         <v>231</v>
@@ -8559,16 +8557,16 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>396</v>
+      </c>
+      <c r="B67" t="s">
         <v>397</v>
-      </c>
-      <c r="B67" t="s">
-        <v>398</v>
       </c>
       <c r="C67">
         <v>2024</v>
       </c>
       <c r="D67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E67">
         <v>38826374</v>
@@ -8589,7 +8587,7 @@
         <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s">
         <v>36</v>
@@ -8601,13 +8599,13 @@
         <v>90</v>
       </c>
       <c r="O67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q67" t="s">
         <v>103</v>
       </c>
       <c r="R67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S67" t="s">
         <v>65</v>
@@ -8639,16 +8637,16 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" t="s">
         <v>445</v>
-      </c>
-      <c r="B68" t="s">
-        <v>446</v>
       </c>
       <c r="C68">
         <v>2024</v>
       </c>
       <c r="D68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E68">
         <v>39551823</v>
@@ -8660,19 +8658,19 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" t="s">
         <v>403</v>
-      </c>
-      <c r="K68" t="s">
-        <v>404</v>
       </c>
       <c r="L68" t="s">
         <v>190</v>
       </c>
       <c r="N68" t="s">
+        <v>404</v>
+      </c>
+      <c r="O68" t="s">
         <v>405</v>
-      </c>
-      <c r="O68" t="s">
-        <v>406</v>
       </c>
       <c r="R68" t="s">
         <v>272</v>
